--- a/results/gurobi_cplex_comparison/seed_40_k_20.xlsx
+++ b/results/gurobi_cplex_comparison/seed_40_k_20.xlsx
@@ -429,10 +429,10 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.014</v>
+        <v>0.5580000000000001</v>
       </c>
       <c r="F2">
-        <v>0.032</v>
+        <v>0.194</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -449,10 +449,10 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.033</v>
+        <v>0.857</v>
       </c>
       <c r="F3">
-        <v>0.08400000000000001</v>
+        <v>0.298</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -469,10 +469,10 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.015</v>
+        <v>1.079</v>
       </c>
       <c r="F4">
-        <v>0.031</v>
+        <v>0.293</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -489,10 +489,10 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.028</v>
+        <v>1.409</v>
       </c>
       <c r="F5">
-        <v>0.044</v>
+        <v>0.366</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -509,10 +509,10 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.027</v>
+        <v>1.777</v>
       </c>
       <c r="F6">
-        <v>0.047</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -529,10 +529,10 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.023</v>
+        <v>2.197</v>
       </c>
       <c r="F7">
-        <v>0.044</v>
+        <v>0.582</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -549,10 +549,10 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.03</v>
+        <v>2.651</v>
       </c>
       <c r="F8">
-        <v>0.051</v>
+        <v>0.622</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -569,10 +569,10 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.032</v>
+        <v>3.157</v>
       </c>
       <c r="F9">
-        <v>0.06</v>
+        <v>0.722</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -589,10 +589,10 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.026</v>
+        <v>3.728</v>
       </c>
       <c r="F10">
-        <v>0.08500000000000001</v>
+        <v>0.869</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -609,10 +609,10 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.033</v>
+        <v>4.286</v>
       </c>
       <c r="F11">
-        <v>0.073</v>
+        <v>0.957</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -629,10 +629,10 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.068</v>
+        <v>4.962</v>
       </c>
       <c r="F12">
-        <v>46.811</v>
+        <v>54.755</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -649,10 +649,10 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.048</v>
+        <v>5.678</v>
       </c>
       <c r="F13">
-        <v>133.734</v>
+        <v>61.878</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -669,10 +669,10 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.051</v>
+        <v>6.374</v>
       </c>
       <c r="F14">
-        <v>79.708</v>
+        <v>107.576</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.081</v>
+        <v>7.201</v>
       </c>
       <c r="F15">
-        <v>90.789</v>
+        <v>60.867</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.053</v>
+        <v>7.94</v>
       </c>
       <c r="F16">
-        <v>80.755</v>
+        <v>61.22</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -729,10 +729,10 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.049</v>
+        <v>8.912000000000001</v>
       </c>
       <c r="F17">
-        <v>71.038</v>
+        <v>80.876</v>
       </c>
     </row>
   </sheetData>
